--- a/codes/df_C_pred.xlsx
+++ b/codes/df_C_pred.xlsx
@@ -467,7 +467,7 @@
         <v>0.98</v>
       </c>
       <c r="D3">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E3">
         <v>0.97</v>
@@ -496,7 +496,7 @@
         <v>0.99</v>
       </c>
       <c r="D4">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="E4">
         <v>0.99</v>
@@ -525,7 +525,7 @@
         <v>0.99</v>
       </c>
       <c r="D5">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="E5">
         <v>0.99</v>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="E6">
         <v>1.01</v>
@@ -583,7 +583,7 @@
         <v>1.01</v>
       </c>
       <c r="D7">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="E7">
         <v>1.02</v>
@@ -612,7 +612,7 @@
         <v>1.02</v>
       </c>
       <c r="D8">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="E8">
         <v>1.03</v>
@@ -641,7 +641,7 @@
         <v>1.03</v>
       </c>
       <c r="D9">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="E9">
         <v>1.05</v>
@@ -670,7 +670,7 @@
         <v>1.04</v>
       </c>
       <c r="D10">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="E10">
         <v>1.05</v>
@@ -699,7 +699,7 @@
         <v>1.04</v>
       </c>
       <c r="D11">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="E11">
         <v>1.07</v>
@@ -728,7 +728,7 @@
         <v>1.05</v>
       </c>
       <c r="D12">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="E12">
         <v>1.08</v>
@@ -757,7 +757,7 @@
         <v>1.06</v>
       </c>
       <c r="D13">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="E13">
         <v>1.09</v>
@@ -786,7 +786,7 @@
         <v>1.07</v>
       </c>
       <c r="D14">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="E14">
         <v>1.1</v>
@@ -815,7 +815,7 @@
         <v>1.07</v>
       </c>
       <c r="D15">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="E15">
         <v>1.11</v>
@@ -844,7 +844,7 @@
         <v>1.08</v>
       </c>
       <c r="D16">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="E16">
         <v>1.12</v>
@@ -873,7 +873,7 @@
         <v>1.09</v>
       </c>
       <c r="D17">
-        <v>1.42</v>
+        <v>1.78</v>
       </c>
       <c r="E17">
         <v>1.13</v>
@@ -902,7 +902,7 @@
         <v>1.09</v>
       </c>
       <c r="D18">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="E18">
         <v>1.14</v>
@@ -931,7 +931,7 @@
         <v>1.1</v>
       </c>
       <c r="D19">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="E19">
         <v>1.15</v>
@@ -960,7 +960,7 @@
         <v>1.11</v>
       </c>
       <c r="D20">
-        <v>1.48</v>
+        <v>1.92</v>
       </c>
       <c r="E20">
         <v>1.17</v>
@@ -989,7 +989,7 @@
         <v>1.11</v>
       </c>
       <c r="D21">
-        <v>1.49</v>
+        <v>1.97</v>
       </c>
       <c r="E21">
         <v>1.17</v>
@@ -1018,7 +1018,7 @@
         <v>1.12</v>
       </c>
       <c r="D22">
-        <v>1.51</v>
+        <v>2.02</v>
       </c>
       <c r="E22">
         <v>1.18</v>
